--- a/output/google_maps_data_Restoran_Gunungkidul.xlsx
+++ b/output/google_maps_data_Restoran_Gunungkidul.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K72"/>
+  <dimension ref="A1:J72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,35 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>reviews_count</t>
+          <t>reviews_average</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>reviews_average</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>is_permanently_closed</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>is_permanently_closed</t>
+          <t>gmaps_link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gmaps_link</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>latest_review_date</t>
         </is>
@@ -502,16 +497,15 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/search/Restoran+Gunungkidul/@-7.8053056,110.2139841,11z/data=!4m2!2m1!6e5?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -525,16 +519,15 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SalSari+Resto+%26+Coffee+%EF%B8%8F+%EF%B8%8F+%EF%B8%8F+%EF%B8%8F+%EF%B8%8F/@-7.8053056,110.2139841,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7a4d78e231c183:0xa0dfd27e5812fb9d!8m2!3d-7.9391306!4d110.5763068!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBCnJlc3RhdXJhbnTgAQA!16s%2Fg%2F11sh5yt7hh?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -553,25 +546,24 @@
           <t>0878-8335-6802</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F4" t="n">
-        <v>4.2</v>
+        <v>-7.981869</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.981869</v>
-      </c>
-      <c r="H4" t="n">
         <v>110.617685</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Omah+Kampoeng+Kuliner+Gunungkidul+(+Rest+Area+%26+Transit+)/@-7.8053056,110.2139841,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7bb4827b3bdd63:0x4b52865e35b84a10!8m2!3d-7.9818686!4d110.6176849!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBCnJlc3RhdXJhbnTgAQA!16s%2Fg%2F11c0rhpk65?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Omah+Kampoeng+Kuliner+Gunungkidul+(+Rest+Area+%26+Transit+)/@-7.8053056,110.2139841,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7bb4827b3bdd63:0x4b52865e35b84a10!8m2!3d-7.9818686!4d110.6176849!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBCnJlc3RhdXJhbnTgAQA!16s%2Fg%2F11c0rhpk65?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -598,25 +590,24 @@
           <t>0813-2927-6099</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F5" t="n">
-        <v>4.4</v>
+        <v>-7.972778</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.972778</v>
-      </c>
-      <c r="H5" t="n">
         <v>110.601083</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Rinten+Ndalu+Coffee+%26+Resto/@-7.8053056,110.2139841,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7bb36618d6261b:0xe577a82bc4ffd35!8m2!3d-7.9727784!4d110.6010829!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBEWZhbWlseV9yZXN0YXVyYW504AEA!16s%2Fg%2F11r10t4_lm?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J5" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Rinten+Ndalu+Coffee+%26+Resto/@-7.8053056,110.2139841,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7bb36618d6261b:0xe577a82bc4ffd35!8m2!3d-7.9727784!4d110.6010829!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBEWZhbWlseV9yZXN0YXVyYW504AEA!16s%2Fg%2F11r10t4_lm?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -639,25 +630,24 @@
           <t>0877-3817-0090</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F6" t="n">
-        <v>4.4</v>
+        <v>-7.887412</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.887412</v>
-      </c>
-      <c r="H6" t="n">
         <v>110.610982</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Restoran+alam+rempak+gunungkidul/@-7.8053056,110.2139841,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7a4db20ff46ae5:0xdf5e2f537f5e5b4f!8m2!3d-7.8874118!4d110.6109821!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBCnJlc3RhdXJhbnTgAQA!16s%2Fg%2F11h_268khb?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J6" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Restoran+alam+rempak+gunungkidul/@-7.8053056,110.2139841,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7a4db20ff46ae5:0xdf5e2f537f5e5b4f!8m2!3d-7.8874118!4d110.6109821!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBCnJlc3RhdXJhbnTgAQA!16s%2Fg%2F11h_268khb?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -680,25 +670,24 @@
           <t>0811-2802-442</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F7" t="n">
-        <v>4.6</v>
+        <v>-7.976718</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.976718</v>
-      </c>
-      <c r="H7" t="n">
         <v>110.602093</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Gaung+Resto+Rest+Area+24+Jam/@-7.8053056,110.2139841,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7bb363a8d61a25:0x233cf40dca31d3bc!8m2!3d-7.976718!4d110.6020926!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBCnJlc3RhdXJhbnTgAQA!16s%2Fg%2F11qpf8f7zf?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J7" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Gaung+Resto+Rest+Area+24+Jam/@-7.8053056,110.2139841,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7bb363a8d61a25:0x233cf40dca31d3bc!8m2!3d-7.976718!4d110.6020926!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBCnJlc3RhdXJhbnTgAQA!16s%2Fg%2F11qpf8f7zf?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
         <is>
           <t>5 hari lalu</t>
         </is>
@@ -721,25 +710,24 @@
           <t>0817-9443-081</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F8" t="n">
-        <v>4.5</v>
+        <v>-7.99708</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.99708</v>
-      </c>
-      <c r="H8" t="n">
         <v>110.650175</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Lesehan+Nasi+Merah+Pari+Gogo/@-7.9970798,110.3617843,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7bb45ad026ce8b:0x190375ddb6d1c2e!8m2!3d-7.9970798!4d110.6501754!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBE2phdmFuZXNlX3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F11cjh_fpwl?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J8" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Lesehan+Nasi+Merah+Pari+Gogo/@-7.9970798,110.3617843,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7bb45ad026ce8b:0x190375ddb6d1c2e!8m2!3d-7.9970798!4d110.6501754!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBE2phdmFuZXNlX3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F11cjh_fpwl?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
         <is>
           <t>3 hari lalu</t>
         </is>
@@ -762,25 +750,24 @@
           <t>0811-7779-838</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F9" t="n">
-        <v>4.1</v>
+        <v>-7.936124</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.936124</v>
-      </c>
-      <c r="H9" t="n">
         <v>110.573019</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Sere+Ratu+Resto/@-7.9970798,110.3617843,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7a4cd93d9b04cb:0xd6e9ccae5823d563!8m2!3d-7.9361238!4d110.5730192!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBCnJlc3RhdXJhbnTgAQA!16s%2Fg%2F11dxrs56mz?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J9" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Sere+Ratu+Resto/@-7.9970798,110.3617843,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7a4cd93d9b04cb:0xd6e9ccae5823d563!8m2!3d-7.9361238!4d110.5730192!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBCnJlc3RhdXJhbnTgAQA!16s%2Fg%2F11dxrs56mz?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -803,25 +790,24 @@
           <t>0813-2525-7474</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F10" t="n">
-        <v>4.7</v>
+        <v>-7.967852</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.967852</v>
-      </c>
-      <c r="H10" t="n">
         <v>110.59338</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kalahari+resto+%26+cafe/@-7.9970798,110.3617843,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7bb3c1c7d79e91:0xb6a86ee3ddd22a4!8m2!3d-7.9678525!4d110.5933802!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBCnJlc3RhdXJhbnTgAQA!16s%2Fg%2F11r8bsvys4?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J10" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kalahari+resto+%26+cafe/@-7.9970798,110.3617843,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7bb3c1c7d79e91:0xb6a86ee3ddd22a4!8m2!3d-7.9678525!4d110.5933802!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBCnJlc3RhdXJhbnTgAQA!16s%2Fg%2F11r8bsvys4?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -844,25 +830,24 @@
           <t>0877-3874-3108</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F11" t="n">
-        <v>4.4</v>
+        <v>-7.987471</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.987471</v>
-      </c>
-      <c r="H11" t="n">
         <v>110.628576</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/RM+Bu+Tiwi+Tan+Tlogo/@-7.9970798,110.3617843,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7bb487de027caf:0x3a46f68554a45b2f!8m2!3d-7.9874713!4d110.6285764!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBE2phdmFuZXNlX3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F11fylg3588?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J11" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/RM+Bu+Tiwi+Tan+Tlogo/@-7.9970798,110.3617843,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7bb487de027caf:0x3a46f68554a45b2f!8m2!3d-7.9874713!4d110.6285764!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBE2phdmFuZXNlX3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F11fylg3588?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
         <is>
           <t>5 hari lalu</t>
         </is>
@@ -881,25 +866,24 @@
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F12" t="n">
-        <v>4.5</v>
+        <v>-7.93768</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.93768</v>
-      </c>
-      <c r="H12" t="n">
         <v>110.574925</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bakmi,+Soto+%26+Ayam+Goreng+Mbah+Noto/@-7.9970798,110.3617843,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7a4cccd2632abb:0x7355c67f4c413e7!8m2!3d-7.93768!4d110.5749246!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBC25vb2RsZV9zaG9w4AEA!16s%2Fg%2F11c0q_hd22?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J12" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bakmi,+Soto+%26+Ayam+Goreng+Mbah+Noto/@-7.9970798,110.3617843,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7a4cccd2632abb:0x7355c67f4c413e7!8m2!3d-7.93768!4d110.5749246!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBC25vb2RsZV9zaG9w4AEA!16s%2Fg%2F11c0q_hd22?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -926,25 +910,24 @@
           <t>(0274) 2910155</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F13" t="n">
-        <v>4.4</v>
+        <v>-7.91059</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.91059</v>
-      </c>
-      <c r="H13" t="n">
         <v>110.554443</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Gudeg+YU+DJUM+Pusat+-+JL+Wonosari/@-7.9970798,110.3617843,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7a4d09d368b5d5:0xb3a7ade8180271c5!8m2!3d-7.9105901!4d110.5544433!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBE2phdmFuZXNlX3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F11cjhryq4l?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J13" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Gudeg+YU+DJUM+Pusat+-+JL+Wonosari/@-7.9970798,110.3617843,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7a4d09d368b5d5:0xb3a7ade8180271c5!8m2!3d-7.9105901!4d110.5544433!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBE2phdmFuZXNlX3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F11cjhryq4l?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
         <is>
           <t>5 hari lalu</t>
         </is>
@@ -967,25 +950,24 @@
           <t>0811-2552-575</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F14" t="n">
-        <v>4.5</v>
+        <v>-7.929761</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.929761</v>
-      </c>
-      <c r="H14" t="n">
         <v>110.567522</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Warung+Simbok/@-7.9970798,110.3617843,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7a4d1f8a3ee9ff:0x7c08b9d37b6c7899!8m2!3d-7.9297613!4d110.567522!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBE2phdmFuZXNlX3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F11cltw678p?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J14" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Warung+Simbok/@-7.9970798,110.3617843,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7a4d1f8a3ee9ff:0x7c08b9d37b6c7899!8m2!3d-7.9297613!4d110.567522!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBE2phdmFuZXNlX3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F11cltw678p?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -1008,25 +990,24 @@
           <t>(0274) 391546</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F15" t="n">
-        <v>4.4</v>
+        <v>-7.96154</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.96154</v>
-      </c>
-      <c r="H15" t="n">
         <v>110.59654</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Ayam+Goreng+Sri+Pendowo/@-7.9970798,110.3617843,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7bb347b6dcd605:0xaa72f0321e8d4597!8m2!3d-7.9615404!4d110.5965395!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBFmZyaWVkX2NoaWNrZW5fdGFrZWF3YXngAQA!16s%2Fg%2F1pzv5lgjz?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J15" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Ayam+Goreng+Sri+Pendowo/@-7.9970798,110.3617843,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7bb347b6dcd605:0xaa72f0321e8d4597!8m2!3d-7.9615404!4d110.5965395!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBFmZyaWVkX2NoaWNrZW5fdGFrZWF3YXngAQA!16s%2Fg%2F1pzv5lgjz?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -1053,25 +1034,24 @@
           <t>0821-3525-5558</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F16" t="n">
-        <v>4.2</v>
+        <v>-8.149951</v>
       </c>
       <c r="G16" t="n">
-        <v>-8.149951</v>
-      </c>
-      <c r="H16" t="n">
         <v>110.611948</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Resto+Indrayanti+GK+Yogyakarta+Indonesia/@-7.9970798,110.3617843,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7bba2bef325f3d:0xa3d6030054af07c4!8m2!3d-8.1499508!4d110.6119476!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBEnNlYWZvb2RfcmVzdGF1cmFudOABAA!16s%2Fg%2F11c452hbyc?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J16" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Resto+Indrayanti+GK+Yogyakarta+Indonesia/@-7.9970798,110.3617843,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7bba2bef325f3d:0xa3d6030054af07c4!8m2!3d-8.1499508!4d110.6119476!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBEnNlYWZvb2RfcmVzdGF1cmFudOABAA!16s%2Fg%2F11c452hbyc?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -1094,25 +1074,24 @@
           <t>0813-2547-2910</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F17" t="n">
-        <v>4.5</v>
+        <v>-7.934848</v>
       </c>
       <c r="G17" t="n">
-        <v>-7.934848</v>
-      </c>
-      <c r="H17" t="n">
         <v>110.577514</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Omahena/@-7.9970798,110.3617843,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7a4d430ea0db63:0xcf0f6103e2054a62!8m2!3d-7.9348481!4d110.5775136!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBCnJlc3RhdXJhbnTgAQA!16s%2Fg%2F11mw7q7192?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J17" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Omahena/@-7.9970798,110.3617843,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7a4d430ea0db63:0xcf0f6103e2054a62!8m2!3d-7.9348481!4d110.5775136!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBCnJlc3RhdXJhbnTgAQA!16s%2Fg%2F11mw7q7192?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
         <is>
           <t>4 hari lalu</t>
         </is>
@@ -1131,25 +1110,24 @@
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F18" t="n">
-        <v>4.4</v>
+        <v>-7.93268</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.93268</v>
-      </c>
-      <c r="H18" t="n">
         <v>110.570426</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Soto+Tan+Proyek/@-7.9970798,110.3617843,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7a4cd9156afe93:0x674115a8341c106b!8m2!3d-7.9326796!4d110.5704255!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBE2phdmFuZXNlX3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F11c0rtpg8r?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J18" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Soto+Tan+Proyek/@-7.9970798,110.3617843,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7a4cd9156afe93:0x674115a8341c106b!8m2!3d-7.9326796!4d110.5704255!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBE2phdmFuZXNlX3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F11c0rtpg8r?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -1172,25 +1150,24 @@
           <t>0822-2104-3237</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F19" t="n">
-        <v>4.6</v>
+        <v>-7.844127</v>
       </c>
       <c r="G19" t="n">
-        <v>-7.844127</v>
-      </c>
-      <c r="H19" t="n">
         <v>110.534587</v>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pawon+Purba+dan+Homestay/@-7.9970798,110.3617843,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7a4fcf185805eb:0xdab75dc9c679e12c!8m2!3d-7.8441268!4d110.5345865!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBCnJlc3RhdXJhbnTgAQA!16s%2Fg%2F11h77_b8t3?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J19" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pawon+Purba+dan+Homestay/@-7.9970798,110.3617843,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7a4fcf185805eb:0xdab75dc9c679e12c!8m2!3d-7.8441268!4d110.5345865!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBCnJlc3RhdXJhbnTgAQA!16s%2Fg%2F11h77_b8t3?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
         <is>
           <t>6 hari lalu</t>
         </is>
@@ -1213,25 +1190,24 @@
           <t>0878-4311-8081</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F20" t="n">
-        <v>4.5</v>
+        <v>-7.97572</v>
       </c>
       <c r="G20" t="n">
-        <v>-7.97572</v>
-      </c>
-      <c r="H20" t="n">
         <v>110.596</v>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Warung+Sego+Abang+Gunung+Kidul/@-7.9970798,110.3617843,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7bb36c88500549:0x6ab9d226c0c9b158!8m2!3d-7.9757196!4d110.5960004!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBBWRpbmVy4AEA!16s%2Fg%2F11g6_tcmjw?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J20" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Warung+Sego+Abang+Gunung+Kidul/@-7.9970798,110.3617843,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7bb36c88500549:0x6ab9d226c0c9b158!8m2!3d-7.9757196!4d110.5960004!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBBWRpbmVy4AEA!16s%2Fg%2F11g6_tcmjw?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -1254,25 +1230,24 @@
           <t>(0274) 391364</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F21" t="n">
-        <v>4.1</v>
+        <v>-7.956843</v>
       </c>
       <c r="G21" t="n">
-        <v>-7.956843</v>
-      </c>
-      <c r="H21" t="n">
         <v>110.591816</v>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Rumah+Makan+Ayam+Goreng+Kondang+Rasa/@-7.9970798,110.3617843,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7bb3346752d279:0x358d2f146e851a6a!8m2!3d-7.9568434!4d110.5918164!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBFmZyaWVkX2NoaWNrZW5fdGFrZWF3YXngAQA!16s%2Fg%2F1pzt4vvzn?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J21" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Rumah+Makan+Ayam+Goreng+Kondang+Rasa/@-7.9970798,110.3617843,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7bb3346752d279:0x358d2f146e851a6a!8m2!3d-7.9568434!4d110.5918164!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBFmZyaWVkX2NoaWNrZW5fdGFrZWF3YXngAQA!16s%2Fg%2F1pzt4vvzn?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
         <is>
           <t>5 hari lalu</t>
         </is>
@@ -1291,25 +1266,24 @@
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F22" t="n">
-        <v>4.2</v>
+        <v>-7.86071</v>
       </c>
       <c r="G22" t="n">
-        <v>-7.86071</v>
-      </c>
-      <c r="H22" t="n">
         <v>110.506307</v>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Teras+Petruk+(%EA%A6%A0%EA%A6%BA%EA%A6%AB%EA%A6%B1%EA%A7%80%EA%A6%A5%EA%A6%BC%EA%A6%A0%EA%A6%BF%EA%A6%B8%EA%A6%8F%EA%A7%80)/@-7.86071,110.2179162,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7a51ee2c00719f:0x16e39a7821b2c9d4!8m2!3d-7.86071!4d110.5063073!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBCnJlc3RhdXJhbnTgAQA!16s%2Fg%2F11b67btb28?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J22" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Teras+Petruk+(%EA%A6%A0%EA%A6%BA%EA%A6%AB%EA%A6%B1%EA%A7%80%EA%A6%A5%EA%A6%BC%EA%A6%A0%EA%A6%BF%EA%A6%B8%EA%A6%8F%EA%A7%80)/@-7.86071,110.2179162,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7a51ee2c00719f:0x16e39a7821b2c9d4!8m2!3d-7.86071!4d110.5063073!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBCnJlc3RhdXJhbnTgAQA!16s%2Fg%2F11b67btb28?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
         <is>
           <t>7 bulan lalu</t>
         </is>
@@ -1336,25 +1310,24 @@
           <t>0877-3815-0282</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F23" t="n">
-        <v>4.6</v>
+        <v>-7.945546</v>
       </c>
       <c r="G23" t="n">
-        <v>-7.945546</v>
-      </c>
-      <c r="H23" t="n">
         <v>110.588008</v>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Soto+dan+Ayam+Goreng+3H-WikA+Depan+TBGK/@-7.86071,110.2179162,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7a4d6eb5e853f7:0xaadb2af66908a363!8m2!3d-7.9455457!4d110.5880078!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBBWRpbmVy4AEA!16s%2Fg%2F11gjhqt3_p?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J23" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Soto+dan+Ayam+Goreng+3H-WikA+Depan+TBGK/@-7.86071,110.2179162,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7a4d6eb5e853f7:0xaadb2af66908a363!8m2!3d-7.9455457!4d110.5880078!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBBWRpbmVy4AEA!16s%2Fg%2F11gjhqt3_p?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1377,25 +1350,24 @@
           <t>0856-2575-039</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F24" t="n">
-        <v>4.4</v>
+        <v>-7.973735</v>
       </c>
       <c r="G24" t="n">
-        <v>-7.973735</v>
-      </c>
-      <c r="H24" t="n">
         <v>110.601904</v>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Waroeng+Spesial+Sambal+%22SS%22+Wonosari/@-7.86071,110.2179162,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7bb3692768de59:0x2ef74342b96b8f6c!8m2!3d-7.9737352!4d110.6019041!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBFWluZG9uZXNpYW5fcmVzdGF1cmFudOABAA!16s%2Fg%2F11cjh_vx4l?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J24" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Waroeng+Spesial+Sambal+%22SS%22+Wonosari/@-7.86071,110.2179162,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7bb3692768de59:0x2ef74342b96b8f6c!8m2!3d-7.9737352!4d110.6019041!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBFWluZG9uZXNpYW5fcmVzdGF1cmFudOABAA!16s%2Fg%2F11cjh_vx4l?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
         <is>
           <t>6 hari lalu</t>
         </is>
@@ -1422,21 +1394,20 @@
           <t>0878-3987-0070</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="n">
+      <c r="E25" t="n">
         <v>4.2</v>
       </c>
+      <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="b">
-        <v>0</v>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Warung+Lesehan+Pak+Kirun/@-7.86071,110.2179162,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7bb35b4b9cce8b:0x90937d8a041c7ba8!8m2!3d-7.9631051!4d110.6051749!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBFWlrYW5fYmFrYXJfcmVzdGF1cmFudOABAA!16s%2Fg%2F11c5xmww8h?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J25" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Warung+Lesehan+Pak+Kirun/@-7.86071,110.2179162,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7bb35b4b9cce8b:0x90937d8a041c7ba8!8m2!3d-7.9631051!4d110.6051749!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBFWlrYW5fYmFrYXJfcmVzdGF1cmFudOABAA!16s%2Fg%2F11c5xmww8h?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
         <is>
           <t>4 minggu lalu</t>
         </is>
@@ -1459,25 +1430,24 @@
           <t>(0274) 391789</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F26" t="n">
-        <v>4.3</v>
+        <v>-7.944277</v>
       </c>
       <c r="G26" t="n">
-        <v>-7.944277</v>
-      </c>
-      <c r="H26" t="n">
         <v>110.580979</v>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Ayam+Goreng+Pak+Parman/@-7.86071,110.2179162,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7a4cd1e34b77c1:0x76c69f16715b14c!8m2!3d-7.9442767!4d110.5809791!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBFmZyaWVkX2NoaWNrZW5fdGFrZWF3YXngAQA!16s%2Fg%2F1pzpngh2q?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J26" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Ayam+Goreng+Pak+Parman/@-7.86071,110.2179162,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7a4cd1e34b77c1:0x76c69f16715b14c!8m2!3d-7.9442767!4d110.5809791!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBFmZyaWVkX2NoaWNrZW5fdGFrZWF3YXngAQA!16s%2Fg%2F1pzpngh2q?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
         <is>
           <t>3 hari lalu</t>
         </is>
@@ -1496,25 +1466,24 @@
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F27" t="n">
-        <v>4.5</v>
+        <v>-7.962729</v>
       </c>
       <c r="G27" t="n">
-        <v>-7.962729</v>
-      </c>
-      <c r="H27" t="n">
         <v>110.601243</v>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Taman+Kuliner+Wonosari/@-7.86071,110.2179162,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7bb34442fdbc07:0x466ae7b75e5951cf!8m2!3d-7.9627292!4d110.6012434!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBCmZvb2RfY291cnTgAQA!16s%2Fg%2F11bzxzdtn9?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J27" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Taman+Kuliner+Wonosari/@-7.86071,110.2179162,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7bb34442fdbc07:0x466ae7b75e5951cf!8m2!3d-7.9627292!4d110.6012434!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBCmZvb2RfY291cnTgAQA!16s%2Fg%2F11bzxzdtn9?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -1541,25 +1510,24 @@
           <t>0821-3490-6455</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F28" t="n">
-        <v>4.4</v>
+        <v>-8.137048999999999</v>
       </c>
       <c r="G28" t="n">
-        <v>-8.137048999999999</v>
-      </c>
-      <c r="H28" t="n">
         <v>110.569052</v>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/RM+Kampoeng+Lobster%EA%A7%8B%EA%A6%AB%EA%A7%80%EA%A6%A9%EA%A7%80%EA%A6%8F%EA%A6%A9%EA%A7%80%EA%A6%A5%EA%A6%BA%EA%A6%B4%EA%A6%AE%EA%A6%BA%EA%A6%81%EA%A6%AD%EA%A6%BA%EA%A6%B4%EA%A6%A7%EA%A7%80%EA%A6%B1%EA%A7%80%EA%A6%A0%EA%A6%BC%EA%A6%82/@-8.1370489,110.2806605,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7bbaf4d3a99c4b:0xaa6181afa14aed71!8m2!3d-8.1370489!4d110.5690516!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBEnNlYWZvb2RfcmVzdGF1cmFudOABAA!16s%2Fg%2F11cmy5hrz7?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J28" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/RM+Kampoeng+Lobster%EA%A7%8B%EA%A6%AB%EA%A7%80%EA%A6%A9%EA%A7%80%EA%A6%8F%EA%A6%A9%EA%A7%80%EA%A6%A5%EA%A6%BA%EA%A6%B4%EA%A6%AE%EA%A6%BA%EA%A6%81%EA%A6%AD%EA%A6%BA%EA%A6%B4%EA%A6%A7%EA%A7%80%EA%A6%B1%EA%A7%80%EA%A6%A0%EA%A6%BC%EA%A6%82/@-8.1370489,110.2806605,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7bbaf4d3a99c4b:0xaa6181afa14aed71!8m2!3d-8.1370489!4d110.5690516!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBEnNlYWZvb2RfcmVzdGF1cmFudOABAA!16s%2Fg%2F11cmy5hrz7?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -1582,25 +1550,24 @@
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F29" t="n">
-        <v>4.4</v>
+        <v>-7.960283</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.960283</v>
-      </c>
-      <c r="H29" t="n">
         <v>110.598301</v>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Sate+Kambing+Pak+Turut/@-8.1370489,110.2806605,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7bb346121c54ed:0x26123a2d891567b1!8m2!3d-7.9602834!4d110.5983011!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBEHNhdGF5X3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F11clwm6mt_?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J29" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Sate+Kambing+Pak+Turut/@-8.1370489,110.2806605,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7bb346121c54ed:0x26123a2d891567b1!8m2!3d-7.9602834!4d110.5983011!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBEHNhdGF5X3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F11clwm6mt_?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
         <is>
           <t>5 hari lalu</t>
         </is>
@@ -1623,25 +1590,24 @@
           <t>0877-3649-8911</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F30" t="n">
-        <v>4.4</v>
+        <v>-7.93896</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.93896</v>
-      </c>
-      <c r="H30" t="n">
         <v>110.575631</v>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Baskom+Logandeng+Gunungkidul/@-8.1370489,110.2806605,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7a4cda1bdcf50f:0x5e134d4d534f7660!8m2!3d-7.9389602!4d110.5756307!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBEGJha3NvX3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F11g8vmp2g8?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J30" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Baskom+Logandeng+Gunungkidul/@-8.1370489,110.2806605,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7a4cda1bdcf50f:0x5e134d4d534f7660!8m2!3d-7.9389602!4d110.5756307!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBEGJha3NvX3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F11g8vmp2g8?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -1664,25 +1630,24 @@
           <t>0878-4311-8081</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr"/>
+      <c r="E31" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F31" t="n">
-        <v>4.6</v>
+        <v>-7.974899</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.974899</v>
-      </c>
-      <c r="H31" t="n">
         <v>110.594318</v>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kuliner+Khas+Gunungkidul/@-8.1370489,110.2806605,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7bb36c64b3ec13:0x45eba5883dd1b228!8m2!3d-7.974899!4d110.5943176!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBFnRyYWRpdGlvbmFsX3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F11g7044jvr?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J31" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kuliner+Khas+Gunungkidul/@-8.1370489,110.2806605,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7bb36c64b3ec13:0x45eba5883dd1b228!8m2!3d-7.974899!4d110.5943176!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBFnRyYWRpdGlvbmFsX3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F11g7044jvr?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -1705,25 +1670,24 @@
           <t>0811-2680-549</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F32" t="n">
-        <v>4.8</v>
+        <v>-8.069804</v>
       </c>
       <c r="G32" t="n">
-        <v>-8.069804</v>
-      </c>
-      <c r="H32" t="n">
         <v>110.658088</v>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Garin+Cafe+%26+Resto/@-8.1370489,110.2806605,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7bb7037c42b3dd:0x24407e39f048dad1!8m2!3d-8.0698041!4d110.6580875!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBBGNhZmXgAQA!16s%2Fg%2F11p_6qzvy_?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J32" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Garin+Cafe+%26+Resto/@-8.1370489,110.2806605,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7bb7037c42b3dd:0x24407e39f048dad1!8m2!3d-8.0698041!4d110.6580875!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBBGNhZmXgAQA!16s%2Fg%2F11p_6qzvy_?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -1746,25 +1710,24 @@
           <t>0878-3492-6665</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr"/>
+      <c r="E33" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F33" t="n">
-        <v>4.3</v>
+        <v>-7.965308</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.965308</v>
-      </c>
-      <c r="H33" t="n">
         <v>110.608527</v>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/d'TEKO/@-8.1370489,110.2806605,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7bb35c5d125ab5:0x3d74055e05179b55!8m2!3d-7.9653081!4d110.608527!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBBGNhZmXgAQA!16s%2Fg%2F11c0pz5r09?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J33" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/d'TEKO/@-8.1370489,110.2806605,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7bb35c5d125ab5:0x3d74055e05179b55!8m2!3d-7.9653081!4d110.608527!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBBGNhZmXgAQA!16s%2Fg%2F11c0pz5r09?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -1787,25 +1750,24 @@
           <t>0856-0212-3232</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr"/>
+      <c r="E34" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F34" t="n">
-        <v>4.8</v>
+        <v>-7.971864</v>
       </c>
       <c r="G34" t="n">
-        <v>-7.971864</v>
-      </c>
-      <c r="H34" t="n">
         <v>110.585332</v>
       </c>
-      <c r="I34" t="b">
-        <v>0</v>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Rumah+Makan+Tiga+Putra+Gunungkidul/@-8.1370489,110.2806605,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7bb36acbb7ba19:0x740bd5ccdaf3a4b9!8m2!3d-7.971864!4d110.5853322!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBEWZhbWlseV9yZXN0YXVyYW504AEA!16s%2Fg%2F11q43h0nn4?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J34" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Rumah+Makan+Tiga+Putra+Gunungkidul/@-8.1370489,110.2806605,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7bb36acbb7ba19:0x740bd5ccdaf3a4b9!8m2!3d-7.971864!4d110.5853322!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBEWZhbWlseV9yZXN0YXVyYW504AEA!16s%2Fg%2F11q43h0nn4?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
         <is>
           <t>11 bulan lalu</t>
         </is>
@@ -1828,25 +1790,24 @@
           <t>0896-4983-5473</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F35" t="n">
-        <v>4.6</v>
+        <v>-7.977001</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.977001</v>
-      </c>
-      <c r="H35" t="n">
         <v>110.615259</v>
       </c>
-      <c r="I35" t="b">
-        <v>0</v>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Lesehan+Mak+Iyem/@-8.1370489,110.2806605,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7bb362c48d0ab1:0x10bc4cd9da285271!8m2!3d-7.9770013!4d110.615259!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBEmNoaWNrZW5fcmVzdGF1cmFudOABAA!16s%2Fg%2F11c6_qlx5h?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J35" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Lesehan+Mak+Iyem/@-8.1370489,110.2806605,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7bb362c48d0ab1:0x10bc4cd9da285271!8m2!3d-7.9770013!4d110.615259!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBEmNoaWNrZW5fcmVzdGF1cmFudOABAA!16s%2Fg%2F11c6_qlx5h?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -1869,25 +1830,24 @@
           <t>0821-3369-4714</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F36" t="n">
-        <v>4.2</v>
+        <v>-8.108521</v>
       </c>
       <c r="G36" t="n">
-        <v>-8.108521</v>
-      </c>
-      <c r="H36" t="n">
         <v>110.468389</v>
       </c>
-      <c r="I36" t="b">
-        <v>0</v>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/IKAN+BAKAR+MAZ+JAMMUS/@-8.1370489,110.2806605,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7baf7733d2c40d:0x3023cce97bd051a2!8m2!3d-8.1085207!4d110.4683889!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBFWlrYW5fYmFrYXJfcmVzdGF1cmFudOABAA!16s%2Fg%2F11csqchmrb?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J36" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/IKAN+BAKAR+MAZ+JAMMUS/@-8.1370489,110.2806605,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7baf7733d2c40d:0x3023cce97bd051a2!8m2!3d-8.1085207!4d110.4683889!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBFWlrYW5fYmFrYXJfcmVzdGF1cmFudOABAA!16s%2Fg%2F11csqchmrb?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -1914,25 +1874,24 @@
           <t>0852-2888-3889</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F37" t="n">
-        <v>4.3</v>
+        <v>-8.13639</v>
       </c>
       <c r="G37" t="n">
-        <v>-8.13639</v>
-      </c>
-      <c r="H37" t="n">
         <v>110.578848</v>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/HUTAMA+RESTO+Rumah+makan+Pantai+Drini/@-8.1370489,110.2806605,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7bba5d71cc462d:0xa4577c9388b3f9c7!8m2!3d-8.1363899!4d110.5788475!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBEnNlYWZvb2RfcmVzdGF1cmFudOABAA!16s%2Fg%2F11bccgv45n?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J37" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/HUTAMA+RESTO+Rumah+makan+Pantai+Drini/@-8.1370489,110.2806605,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7bba5d71cc462d:0xa4577c9388b3f9c7!8m2!3d-8.1363899!4d110.5788475!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBEnNlYWZvb2RfcmVzdGF1cmFudOABAA!16s%2Fg%2F11bccgv45n?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -1959,25 +1918,24 @@
           <t>0812-1557-9777</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr"/>
+      <c r="E38" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F38" t="n">
-        <v>4.4</v>
+        <v>-7.963801</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.963801</v>
-      </c>
-      <c r="H38" t="n">
         <v>110.609138</v>
       </c>
-      <c r="I38" t="b">
-        <v>0</v>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Gathot+Thiwul+Yu+Tum/@-8.1370489,110.2806605,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7bb35b8c70cb47:0x76930c23670446a1!8m2!3d-7.9638009!4d110.6091377!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBBGRlbGngAQA!16s%2Fg%2F11rvtn3gw?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J38" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Gathot+Thiwul+Yu+Tum/@-8.1370489,110.2806605,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7bb35b8c70cb47:0x76930c23670446a1!8m2!3d-7.9638009!4d110.6091377!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBBGRlbGngAQA!16s%2Fg%2F11rvtn3gw?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -2004,25 +1962,24 @@
           <t>0882-0054-42397</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr"/>
+      <c r="E39" t="n">
+        <v>3.8</v>
+      </c>
       <c r="F39" t="n">
-        <v>3.8</v>
+        <v>-8.145080999999999</v>
       </c>
       <c r="G39" t="n">
-        <v>-8.145080999999999</v>
-      </c>
-      <c r="H39" t="n">
         <v>110.602676</v>
       </c>
-      <c r="I39" t="b">
-        <v>0</v>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Cafe+de+Slili/@-8.1370489,110.2806605,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7bbb8d72145561:0xc843e2d9f69753ef!8m2!3d-8.1450813!4d110.6026763!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBCnJlc3RhdXJhbnTgAQA!16s%2Fg%2F11qq70859w?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J39" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Cafe+de+Slili/@-8.1370489,110.2806605,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7bbb8d72145561:0xc843e2d9f69753ef!8m2!3d-8.1450813!4d110.6026763!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBCnJlc3RhdXJhbnTgAQA!16s%2Fg%2F11qq70859w?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
         <is>
           <t>6 hari lalu</t>
         </is>
@@ -2045,25 +2002,24 @@
           <t>0877-3901-2322</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr"/>
+      <c r="E40" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F40" t="n">
-        <v>4.8</v>
+        <v>-8.047055</v>
       </c>
       <c r="G40" t="n">
-        <v>-8.047055</v>
-      </c>
-      <c r="H40" t="n">
         <v>110.508892</v>
       </c>
-      <c r="I40" t="b">
-        <v>0</v>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/OMAH+SOP+JAWA+SUNDA+(+RESTO+%26+HOME+STAY+SYARI'AH)/@-8.1370489,110.2806605,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7baf5c2eaa888b:0xa1b888caf0850d55!8m2!3d-8.0470554!4d110.5088917!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBFWluZG9uZXNpYW5fcmVzdGF1cmFudOABAA!16s%2Fg%2F11ss1frd9k?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J40" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/OMAH+SOP+JAWA+SUNDA+(+RESTO+%26+HOME+STAY+SYARI'AH)/@-8.1370489,110.2806605,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7baf5c2eaa888b:0xa1b888caf0850d55!8m2!3d-8.0470554!4d110.5088917!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBFWluZG9uZXNpYW5fcmVzdGF1cmFudOABAA!16s%2Fg%2F11ss1frd9k?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
         <is>
           <t>5 hari lalu</t>
         </is>
@@ -2086,25 +2042,24 @@
           <t>0813-2864-4776</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr"/>
+      <c r="E41" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F41" t="n">
-        <v>4.9</v>
+        <v>-8.027113</v>
       </c>
       <c r="G41" t="n">
-        <v>-8.027113</v>
-      </c>
-      <c r="H41" t="n">
         <v>110.590368</v>
       </c>
-      <c r="I41" t="b">
-        <v>0</v>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Rest+area+dan+rumah+makan+kampung+ngingrong/@-8.1370489,110.2806605,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7bb398c680f333:0x7f7ec838f1d3bb8f!8m2!3d-8.0271126!4d110.590368!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBCnJlc3RhdXJhbnTgAQA!16s%2Fg%2F11j9f4vrm5?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J41" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Rest+area+dan+rumah+makan+kampung+ngingrong/@-8.1370489,110.2806605,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7bb398c680f333:0x7f7ec838f1d3bb8f!8m2!3d-8.0271126!4d110.590368!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBCnJlc3RhdXJhbnTgAQA!16s%2Fg%2F11j9f4vrm5?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -2127,25 +2082,24 @@
           <t>(0274) 392029</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr"/>
+      <c r="E42" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F42" t="n">
-        <v>4.4</v>
+        <v>-7.942411</v>
       </c>
       <c r="G42" t="n">
-        <v>-7.942411</v>
-      </c>
-      <c r="H42" t="n">
         <v>110.578886</v>
       </c>
-      <c r="I42" t="b">
-        <v>0</v>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Nongko+Doyong/@-8.1370489,110.2806605,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7a4dbfab9de78d:0x58e028708009ea60!8m2!3d-7.9424114!4d110.578886!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBEHNhdGF5X3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F1pzqvlym5?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J42" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Nongko+Doyong/@-8.1370489,110.2806605,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7a4dbfab9de78d:0x58e028708009ea60!8m2!3d-7.9424114!4d110.578886!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBEHNhdGF5X3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F1pzqvlym5?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -2168,25 +2122,24 @@
           <t>0811-2500-993</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr"/>
+      <c r="E43" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F43" t="n">
-        <v>4.3</v>
+        <v>-8.146466</v>
       </c>
       <c r="G43" t="n">
-        <v>-8.146466</v>
-      </c>
-      <c r="H43" t="n">
         <v>110.606509</v>
       </c>
-      <c r="I43" t="b">
-        <v>0</v>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Resto+JOGO+SEGORO+Seafood/@-8.1370489,110.2806605,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7bba2fc7685947:0xbae10d96b5056aad!8m2!3d-8.1464659!4d110.6065088!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBEnNlYWZvb2RfcmVzdGF1cmFudOABAA!16s%2Fg%2F11bt_kcc_h?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J43" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Resto+JOGO+SEGORO+Seafood/@-8.1370489,110.2806605,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7bba2fc7685947:0xbae10d96b5056aad!8m2!3d-8.1464659!4d110.6065088!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBEnNlYWZvb2RfcmVzdGF1cmFudOABAA!16s%2Fg%2F11bt_kcc_h?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
         <is>
           <t>19 jam lalu</t>
         </is>
@@ -2209,25 +2162,24 @@
           <t>0817-7543-3939</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr"/>
+      <c r="E44" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F44" t="n">
-        <v>4.1</v>
+        <v>-8.136196999999999</v>
       </c>
       <c r="G44" t="n">
-        <v>-8.136196999999999</v>
-      </c>
-      <c r="H44" t="n">
         <v>110.568699</v>
       </c>
-      <c r="I44" t="b">
-        <v>0</v>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Rumah+Makan+Sepanjang+Indah/@-8.1370489,110.2806605,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7bbaf553336da7:0xe411284ce26215ce!8m2!3d-8.1361967!4d110.5686986!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBCnJlc3RhdXJhbnTgAQA!16s%2Fg%2F11cs9_z0f0?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J44" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Rumah+Makan+Sepanjang+Indah/@-8.1370489,110.2806605,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7bbaf553336da7:0xe411284ce26215ce!8m2!3d-8.1361967!4d110.5686986!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBCnJlc3RhdXJhbnTgAQA!16s%2Fg%2F11cs9_z0f0?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -2250,25 +2202,24 @@
           <t>0823-2381-6086</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr"/>
+      <c r="E45" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F45" t="n">
-        <v>4.6</v>
+        <v>-7.969305</v>
       </c>
       <c r="G45" t="n">
-        <v>-7.969305</v>
-      </c>
-      <c r="H45" t="n">
         <v>110.537569</v>
       </c>
-      <c r="I45" t="b">
-        <v>0</v>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Omah+Angon+Farm+%26+Cafe/@-8.1370489,110.2806605,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7bb3e7826444b7:0x136a4f18126ea098!8m2!3d-7.969305!4d110.537569!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBBGNhZmXgAQA!16s%2Fg%2F11t6mljctl?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J45" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Omah+Angon+Farm+%26+Cafe/@-8.1370489,110.2806605,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7bb3e7826444b7:0x136a4f18126ea098!8m2!3d-7.969305!4d110.537569!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBBGNhZmXgAQA!16s%2Fg%2F11t6mljctl?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -2291,25 +2242,24 @@
           <t>0812-8564-2407</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr"/>
+      <c r="E46" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F46" t="n">
-        <v>4.9</v>
+        <v>-8.106484999999999</v>
       </c>
       <c r="G46" t="n">
-        <v>-8.106484999999999</v>
-      </c>
-      <c r="H46" t="n">
         <v>110.462979</v>
       </c>
-      <c r="I46" t="b">
-        <v>0</v>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Taman+Watu+Cafe+%26+Resort/@-8.1370489,110.2806605,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7baff8a8b29b41:0x56e1680484e24758!8m2!3d-8.106485!4d110.4629789!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBBGNhZmXgAQA!16s%2Fg%2F11h8l4r60w?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J46" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Taman+Watu+Cafe+%26+Resort/@-8.1370489,110.2806605,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7baff8a8b29b41:0x56e1680484e24758!8m2!3d-8.106485!4d110.4629789!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBBGNhZmXgAQA!16s%2Fg%2F11h8l4r60w?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -2332,25 +2282,24 @@
           <t>0878-4311-8081</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr"/>
+      <c r="E47" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F47" t="n">
-        <v>4.4</v>
+        <v>-7.975662</v>
       </c>
       <c r="G47" t="n">
-        <v>-7.975662</v>
-      </c>
-      <c r="H47" t="n">
         <v>110.595884</v>
       </c>
-      <c r="I47" t="b">
-        <v>0</v>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Nasi+Merah+Wonosari/@-8.1370489,110.2806605,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7bb36c64b3ec13:0xc6e248a26eb2a697!8m2!3d-7.9756618!4d110.5958844!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBCnJlc3RhdXJhbnTgAQA!16s%2Fg%2F11g6yjy0qk?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J47" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Nasi+Merah+Wonosari/@-8.1370489,110.2806605,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7bb36c64b3ec13:0xc6e248a26eb2a697!8m2!3d-7.9756618!4d110.5958844!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBCnJlc3RhdXJhbnTgAQA!16s%2Fg%2F11g6yjy0qk?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -2373,25 +2322,24 @@
           <t>0819-4913-3666</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr"/>
+      <c r="E48" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F48" t="n">
-        <v>4.5</v>
+        <v>-7.97754</v>
       </c>
       <c r="G48" t="n">
-        <v>-7.97754</v>
-      </c>
-      <c r="H48" t="n">
         <v>110.602625</v>
       </c>
-      <c r="I48" t="b">
-        <v>0</v>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Sambel+Mentah+P-3+Joyo/@-8.1370489,110.2806605,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7bb36faf142e39:0xf9b8f7e7c9016fb7!8m2!3d-7.9775395!4d110.6026248!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBEmNoaWNrZW5fcmVzdGF1cmFudOABAA!16s%2Fg%2F11c52l_vsg?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J48" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Sambel+Mentah+P-3+Joyo/@-8.1370489,110.2806605,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7bb36faf142e39:0xf9b8f7e7c9016fb7!8m2!3d-7.9775395!4d110.6026248!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBEmNoaWNrZW5fcmVzdGF1cmFudOABAA!16s%2Fg%2F11c52l_vsg?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -2414,25 +2362,24 @@
           <t>0813-2871-6111</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr"/>
+      <c r="E49" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F49" t="n">
-        <v>4.3</v>
+        <v>-7.967249</v>
       </c>
       <c r="G49" t="n">
-        <v>-7.967249</v>
-      </c>
-      <c r="H49" t="n">
         <v>110.602226</v>
       </c>
-      <c r="I49" t="b">
-        <v>0</v>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Lesehan+Katamso/@-8.1370489,110.2806605,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7bb342f91982e5:0x9ea965e4d999142!8m2!3d-7.967249!4d110.6022258!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBBWRpbmVy4AEA!16s%2Fg%2F11c45tq_72?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J49" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Lesehan+Katamso/@-8.1370489,110.2806605,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7bb342f91982e5:0x9ea965e4d999142!8m2!3d-7.967249!4d110.6022258!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBBWRpbmVy4AEA!16s%2Fg%2F11c45tq_72?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -2455,25 +2402,24 @@
           <t>(0274) 375433</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr"/>
+      <c r="E50" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F50" t="n">
-        <v>4.3</v>
+        <v>-7.823146</v>
       </c>
       <c r="G50" t="n">
-        <v>-7.823146</v>
-      </c>
-      <c r="H50" t="n">
         <v>110.355066</v>
       </c>
-      <c r="I50" t="b">
-        <v>0</v>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bebek+Goreng+Pak+Koes+Gunungkidul/@-7.8231458,110.0666751,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7a5795691d9921:0x860841d115b29437!8m2!3d-7.8231458!4d110.3550662!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBEmNoaWNrZW5fcmVzdGF1cmFudOABAA!16s%2Fg%2F1pzxqcy44?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J50" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bebek+Goreng+Pak+Koes+Gunungkidul/@-7.8231458,110.0666751,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7a5795691d9921:0x860841d115b29437!8m2!3d-7.8231458!4d110.3550662!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBEmNoaWNrZW5fcmVzdGF1cmFudOABAA!16s%2Fg%2F1pzxqcy44?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
         <is>
           <t>3 hari lalu</t>
         </is>
@@ -2496,25 +2442,24 @@
           <t>0818-0437-4042</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr"/>
+      <c r="E51" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F51" t="n">
-        <v>4.7</v>
+        <v>-8.002782</v>
       </c>
       <c r="G51" t="n">
-        <v>-8.002782</v>
-      </c>
-      <c r="H51" t="n">
         <v>110.654889</v>
       </c>
-      <c r="I51" t="b">
-        <v>0</v>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Ayam+Mbah+Tumbu/@-8.002782,110.3664976,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7bb44f32c8f8cd:0xf10a138cfad67a29!8m2!3d-8.002782!4d110.6548887!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBEmNoaWNrZW5fcmVzdGF1cmFudOABAA!16s%2Fg%2F11b6xdqlrd?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J51" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Ayam+Mbah+Tumbu/@-8.002782,110.3664976,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7bb44f32c8f8cd:0xf10a138cfad67a29!8m2!3d-8.002782!4d110.6548887!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBEmNoaWNrZW5fcmVzdGF1cmFudOABAA!16s%2Fg%2F11b6xdqlrd?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -2537,25 +2482,24 @@
           <t>0878-3818-7677</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr"/>
+      <c r="E52" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F52" t="n">
-        <v>4.6</v>
+        <v>-7.968381</v>
       </c>
       <c r="G52" t="n">
-        <v>-7.968381</v>
-      </c>
-      <c r="H52" t="n">
         <v>110.614737</v>
       </c>
-      <c r="I52" t="b">
-        <v>0</v>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kuliner,Cafe+dan+Resto+Kalijogo/@-8.002782,110.3664976,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7bb3011d038aaf:0xf99487bcd538c4aa!8m2!3d-7.9683814!4d110.6147366!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBCnJlc3RhdXJhbnTgAQA!16s%2Fg%2F11sf2ydwrn?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J52" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kuliner,Cafe+dan+Resto+Kalijogo/@-8.002782,110.3664976,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7bb3011d038aaf:0xf99487bcd538c4aa!8m2!3d-7.9683814!4d110.6147366!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBCnJlc3RhdXJhbnTgAQA!16s%2Fg%2F11sf2ydwrn?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -2574,25 +2518,24 @@
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
+      <c r="E53" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F53" t="n">
-        <v>4.9</v>
+        <v>-7.94487</v>
       </c>
       <c r="G53" t="n">
-        <v>-7.94487</v>
-      </c>
-      <c r="H53" t="n">
         <v>110.552202</v>
       </c>
-      <c r="I53" t="b">
-        <v>0</v>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/KITCHEN+STORY+Cafe+%26+Dessert/@-8.002782,110.3664976,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7a4da4a50d9861:0x188b0c257dced874!8m2!3d-7.9448705!4d110.5522024!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBBGNhZmXgAQA!16s%2Fg%2F11vbwv95sn?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J53" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/KITCHEN+STORY+Cafe+%26+Dessert/@-8.002782,110.3664976,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7a4da4a50d9861:0x188b0c257dced874!8m2!3d-7.9448705!4d110.5522024!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBBGNhZmXgAQA!16s%2Fg%2F11vbwv95sn?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
         <is>
           <t>12 jam lalu</t>
         </is>
@@ -2619,25 +2562,24 @@
           <t>(0274) 4357999</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr"/>
+      <c r="E54" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F54" t="n">
-        <v>4.4</v>
+        <v>-7.849614</v>
       </c>
       <c r="G54" t="n">
-        <v>-7.849614</v>
-      </c>
-      <c r="H54" t="n">
         <v>110.478324</v>
       </c>
-      <c r="I54" t="b">
-        <v>0</v>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/HeHa+Sky+View/@-7.8496144,110.1899329,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7a512d80f3246d:0xf671a280cf1b6f55!8m2!3d-7.8496144!4d110.478324!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBDmFtdXNlbWVudF9wYXJr4AEA!16s%2Fg%2F11hyt6k0zw?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J54" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/HeHa+Sky+View/@-7.8496144,110.1899329,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7a512d80f3246d:0xf671a280cf1b6f55!8m2!3d-7.8496144!4d110.478324!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBDmFtdXNlbWVudF9wYXJr4AEA!16s%2Fg%2F11hyt6k0zw?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
         <is>
           <t>54 menit lalu</t>
         </is>
@@ -2660,25 +2602,24 @@
           <t>0819-0403-4433</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr"/>
+      <c r="E55" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F55" t="n">
-        <v>4.6</v>
+        <v>-7.93754</v>
       </c>
       <c r="G55" t="n">
-        <v>-7.93754</v>
-      </c>
-      <c r="H55" t="n">
         <v>110.593035</v>
       </c>
-      <c r="I55" t="b">
-        <v>0</v>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Waroeng+Dhahar+PAWONE+MBAH+SECHO/@-7.8496144,110.1899329,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7a4d770ce5e4d5:0x575e48e96d5b3175!8m2!3d-7.93754!4d110.5930352!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBCnJlc3RhdXJhbnTgAQA!16s%2Fg%2F11h1yx499p?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J55" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Waroeng+Dhahar+PAWONE+MBAH+SECHO/@-7.8496144,110.1899329,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7a4d770ce5e4d5:0x575e48e96d5b3175!8m2!3d-7.93754!4d110.5930352!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBCnJlc3RhdXJhbnTgAQA!16s%2Fg%2F11h1yx499p?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -2701,25 +2642,24 @@
           <t>0817-9443-081</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr"/>
+      <c r="E56" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F56" t="n">
-        <v>4.3</v>
+        <v>-7.99715</v>
       </c>
       <c r="G56" t="n">
-        <v>-7.99715</v>
-      </c>
-      <c r="H56" t="n">
         <v>110.650426</v>
       </c>
-      <c r="I56" t="b">
-        <v>0</v>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Warung+Sego+Abang+Pari+Gogo/@-7.9971498,110.3620353,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7bb4883b8c2ed9:0xfa16f1b72d82035a!8m2!3d-7.9971498!4d110.6504264!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBEXBhZGFuZ19yZXN0YXVyYW504AEA!16s%2Fg%2F11b6czhnq8?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J56" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Warung+Sego+Abang+Pari+Gogo/@-7.9971498,110.3620353,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7bb4883b8c2ed9:0xfa16f1b72d82035a!8m2!3d-7.9971498!4d110.6504264!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBEXBhZGFuZ19yZXN0YXVyYW504AEA!16s%2Fg%2F11b6czhnq8?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -2742,25 +2682,24 @@
           <t>0812-3463-5228</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr"/>
+      <c r="E57" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F57" t="n">
-        <v>4.6</v>
+        <v>-7.961906</v>
       </c>
       <c r="G57" t="n">
-        <v>-7.961906</v>
-      </c>
-      <c r="H57" t="n">
         <v>110.601711</v>
       </c>
-      <c r="I57" t="b">
-        <v>0</v>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Mamyam+Wonosari/@-7.9971498,110.3620353,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7bb3a800d2acb7:0x3f0a2fc473347541!8m2!3d-7.9619061!4d110.601711!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBCnJlc3RhdXJhbnTgAQA!16s%2Fg%2F11j0bw0fvg?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J57" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Mamyam+Wonosari/@-7.9971498,110.3620353,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7bb3a800d2acb7:0x3f0a2fc473347541!8m2!3d-7.9619061!4d110.601711!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBCnJlc3RhdXJhbnTgAQA!16s%2Fg%2F11j0bw0fvg?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -2783,25 +2722,24 @@
           <t>0878-5881-4825</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr"/>
+      <c r="E58" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F58" t="n">
-        <v>4.8</v>
+        <v>-7.931889</v>
       </c>
       <c r="G58" t="n">
-        <v>-7.931889</v>
-      </c>
-      <c r="H58" t="n">
         <v>110.55612</v>
       </c>
-      <c r="I58" t="b">
-        <v>0</v>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kebon+Jati+Resto+%26+Homestay/@-7.9971498,110.3620353,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7a4d00712ffab7:0x34c8327a30c44ac8!8m2!3d-7.9318895!4d110.5561197!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBCnJlc3RhdXJhbnTgAQA!16s%2Fg%2F11vspffzjd?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J58" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kebon+Jati+Resto+%26+Homestay/@-7.9971498,110.3620353,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7a4d00712ffab7:0x34c8327a30c44ac8!8m2!3d-7.9318895!4d110.5561197!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBCnJlc3RhdXJhbnTgAQA!16s%2Fg%2F11vspffzjd?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -2824,25 +2762,24 @@
           <t>(0274) 451662</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr"/>
+      <c r="E59" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F59" t="n">
-        <v>4.2</v>
+        <v>-7.811141</v>
       </c>
       <c r="G59" t="n">
-        <v>-7.811141</v>
-      </c>
-      <c r="H59" t="n">
         <v>110.408568</v>
       </c>
-      <c r="I59" t="b">
-        <v>0</v>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Goebog+Resto/@-7.8111405,110.1201765,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7a5746ccd42485:0x69bd5872afe0b6b5!8m2!3d-7.8111405!4d110.4085676!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBEWZhbWlseV9yZXN0YXVyYW504AEA!16s%2Fg%2F1pzq2cxbn?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J59" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Goebog+Resto/@-7.8111405,110.1201765,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7a5746ccd42485:0x69bd5872afe0b6b5!8m2!3d-7.8111405!4d110.4085676!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBEWZhbWlseV9yZXN0YXVyYW504AEA!16s%2Fg%2F1pzq2cxbn?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -2861,25 +2798,24 @@
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr"/>
+      <c r="E60" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F60" t="n">
-        <v>4.9</v>
+        <v>-7.995768</v>
       </c>
       <c r="G60" t="n">
-        <v>-7.995768</v>
-      </c>
-      <c r="H60" t="n">
         <v>110.623685</v>
       </c>
-      <c r="I60" t="b">
-        <v>0</v>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kantin+UNY+Kampus+Gunungkidul/@-7.9957682,110.3352942,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7bb5158ebd86a3:0x2345e240c60456ea!8m2!3d-7.9957682!4d110.6236853!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBCnJlc3RhdXJhbnTgAQA!16s%2Fg%2F11t_vkqy_k?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J60" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kantin+UNY+Kampus+Gunungkidul/@-7.9957682,110.3352942,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7bb5158ebd86a3:0x2345e240c60456ea!8m2!3d-7.9957682!4d110.6236853!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBCnJlc3RhdXJhbnTgAQA!16s%2Fg%2F11t_vkqy_k?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -2902,25 +2838,24 @@
           <t>0822-2604-1811</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr"/>
+      <c r="E61" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F61" t="n">
-        <v>4.2</v>
+        <v>-8.150596999999999</v>
       </c>
       <c r="G61" t="n">
-        <v>-8.150596999999999</v>
-      </c>
-      <c r="H61" t="n">
         <v>110.612883</v>
       </c>
-      <c r="I61" t="b">
-        <v>0</v>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/RM.PAWON+NDESO/@-7.9957682,110.3352942,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7bba2bc0cae8c5:0xfd22a2cb41e33a15!8m2!3d-8.1505967!4d110.6128834!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBEnNlYWZvb2RfcmVzdGF1cmFudOABAA!16s%2Fg%2F11dzsvmxnb?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J61" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/RM.PAWON+NDESO/@-7.9957682,110.3352942,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7bba2bc0cae8c5:0xfd22a2cb41e33a15!8m2!3d-8.1505967!4d110.6128834!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBEnNlYWZvb2RfcmVzdGF1cmFudOABAA!16s%2Fg%2F11dzsvmxnb?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -2943,25 +2878,24 @@
           <t>0878-6134-4430</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr"/>
+      <c r="E62" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F62" t="n">
-        <v>4.8</v>
+        <v>-7.971841</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.971841</v>
-      </c>
-      <c r="H62" t="n">
         <v>110.606705</v>
       </c>
-      <c r="I62" t="b">
-        <v>0</v>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Nasi+goreng+%22mas+adelio%22/@-7.9957682,110.3352942,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7bb38c01a669a3:0x656c2660e0c3d3!8m2!3d-7.9718411!4d110.6067054!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBEGFzaWFuX3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F11v3tyb_lj?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J62" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Nasi+goreng+%22mas+adelio%22/@-7.9957682,110.3352942,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7bb38c01a669a3:0x656c2660e0c3d3!8m2!3d-7.9718411!4d110.6067054!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBEGFzaWFuX3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F11v3tyb_lj?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
         <is>
           <t>16 jam lalu</t>
         </is>
@@ -2984,25 +2918,24 @@
           <t>0813-9396-9959</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr"/>
+      <c r="E63" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F63" t="n">
-        <v>4.7</v>
+        <v>-7.825296</v>
       </c>
       <c r="G63" t="n">
-        <v>-7.825296</v>
-      </c>
-      <c r="H63" t="n">
         <v>110.455962</v>
       </c>
-      <c r="I63" t="b">
-        <v>0</v>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Sego+Berkat+Klenggotan+-+Khas+Gunungkidul/@-7.8252963,110.1675707,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7a512f656a970b:0xd45fc3d5f53af712!8m2!3d-7.8252963!4d110.4559618!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBCnJlc3RhdXJhbnTgAQA!16s%2Fg%2F11lgsj_x9h?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J63" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Sego+Berkat+Klenggotan+-+Khas+Gunungkidul/@-7.8252963,110.1675707,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7a512f656a970b:0xd45fc3d5f53af712!8m2!3d-7.8252963!4d110.4559618!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBCnJlc3RhdXJhbnTgAQA!16s%2Fg%2F11lgsj_x9h?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -3025,25 +2958,24 @@
           <t>0813-9396-9959</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr"/>
+      <c r="E64" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F64" t="n">
-        <v>4.7</v>
+        <v>-7.818117</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.818117</v>
-      </c>
-      <c r="H64" t="n">
         <v>110.416547</v>
       </c>
-      <c r="I64" t="b">
-        <v>0</v>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Ayam+Goreng+Gunung+Kidul/@-7.8252963,110.1675707,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7a5737232a0827:0x361665275e136806!8m2!3d-7.8181175!4d110.4165465!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBFmZyaWVkX2NoaWNrZW5fdGFrZWF3YXngAQA!16s%2Fg%2F11b6z063yv?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J64" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Ayam+Goreng+Gunung+Kidul/@-7.8252963,110.1675707,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7a5737232a0827:0x361665275e136806!8m2!3d-7.8181175!4d110.4165465!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBFmZyaWVkX2NoaWNrZW5fdGFrZWF3YXngAQA!16s%2Fg%2F11b6z063yv?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -3066,25 +2998,24 @@
           <t>0812-2779-869</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr"/>
+      <c r="E65" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F65" t="n">
-        <v>4.3</v>
+        <v>-7.830384</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.830384</v>
-      </c>
-      <c r="H65" t="n">
         <v>110.416239</v>
       </c>
-      <c r="I65" t="b">
-        <v>0</v>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Soba+gunungkidul/@-7.8252963,110.1675707,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7a57002a0c9a05:0x9a2364bbd9f00a42!8m2!3d-7.8303837!4d110.4162394!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBEWJydW5jaF9yZXN0YXVyYW50mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJmYVRrM05IaEJSUkFC4AEA-gEFCI8BEBc!16s%2Fg%2F11x1dns3kf?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J65" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Soba+gunungkidul/@-7.8252963,110.1675707,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7a57002a0c9a05:0x9a2364bbd9f00a42!8m2!3d-7.8303837!4d110.4162394!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBEWJydW5jaF9yZXN0YXVyYW50mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJmYVRrM05IaEJSUkFC4AEA-gEFCI8BEBc!16s%2Fg%2F11x1dns3kf?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -3107,21 +3038,20 @@
           <t>0819-0371-5009</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="n">
+      <c r="E66" t="n">
         <v>4.5</v>
       </c>
+      <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="b">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr">
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Warung+Makan+Bu+Sidas+Pancuran/@-7.8252963,110.1675707,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7bb3158494dd3b:0xe5b4caced11ec589!8m2!3d-7.9706188!4d110.5896203!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBE2phdmFuZXNlX3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F11c1sz_r7f?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3140,25 +3070,24 @@
           <t>0819-0445-8676</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr"/>
+      <c r="E67" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F67" t="n">
-        <v>4.8</v>
+        <v>-8.069266000000001</v>
       </c>
       <c r="G67" t="n">
-        <v>-8.069266000000001</v>
-      </c>
-      <c r="H67" t="n">
         <v>110.656232</v>
       </c>
-      <c r="I67" t="b">
-        <v>0</v>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bakmi+Jawa+Bu+Sastro+Gunungkidul/@-8.0692661,110.3678407,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7bb757cdd10667:0xb1211a02318bbd0e!8m2!3d-8.0692661!4d110.6562318!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBBWRpbmVy4AEA!16s%2Fg%2F11v3gw0m1j?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J67" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bakmi+Jawa+Bu+Sastro+Gunungkidul/@-8.0692661,110.3678407,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7bb757cdd10667:0xb1211a02318bbd0e!8m2!3d-8.0692661!4d110.6562318!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBBWRpbmVy4AEA!16s%2Fg%2F11v3gw0m1j?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -3181,25 +3110,24 @@
           <t>0819-0445-8676</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr"/>
+      <c r="E68" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F68" t="n">
-        <v>4.8</v>
+        <v>-7.991836</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.991836</v>
-      </c>
-      <c r="H68" t="n">
         <v>110.638763</v>
       </c>
-      <c r="I68" t="b">
-        <v>0</v>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/GUJID+ndeso+resto/@-8.0692661,110.3678407,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7bb460e9bb49a1:0xad9e4f3e5bd748ca!8m2!3d-7.9918364!4d110.6387634!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBE2phdmFuZXNlX3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F11by_ly_jb?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J68" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/GUJID+ndeso+resto/@-8.0692661,110.3678407,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7bb460e9bb49a1:0xad9e4f3e5bd748ca!8m2!3d-7.9918364!4d110.6387634!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBE2phdmFuZXNlX3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F11by_ly_jb?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -3222,25 +3150,24 @@
           <t>0813-9272-2755</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr"/>
+      <c r="E69" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F69" t="n">
-        <v>4.2</v>
+        <v>-7.996979</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.996979</v>
-      </c>
-      <c r="H69" t="n">
         <v>110.65012</v>
       </c>
-      <c r="I69" t="b">
-        <v>0</v>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Warung+Jirak/@-8.0692661,110.3678407,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7bb489d2bf180f:0xa4df880564af15cb!8m2!3d-7.9969788!4d110.6501204!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBFnRyYWRpdGlvbmFsX3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F1pzw2tk_v?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J69" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Warung+Jirak/@-8.0692661,110.3678407,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7bb489d2bf180f:0xa4df880564af15cb!8m2!3d-7.9969788!4d110.6501204!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBFnRyYWRpdGlvbmFsX3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F1pzw2tk_v?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
         <is>
           <t>8 bulan lalu</t>
         </is>
@@ -3263,25 +3190,24 @@
           <t>0813-9272-2755</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr"/>
+      <c r="E70" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F70" t="n">
-        <v>4.2</v>
+        <v>-8.108661</v>
       </c>
       <c r="G70" t="n">
-        <v>-8.108661</v>
-      </c>
-      <c r="H70" t="n">
         <v>110.467896</v>
       </c>
-      <c r="I70" t="b">
-        <v>0</v>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Rumah+Makan+Sea+Food+Lestari/@-8.1086611,110.179505,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7baf76d3ad0315:0x59d729ede64edfb7!8m2!3d-8.1086611!4d110.4678961!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBEnNlYWZvb2RfcmVzdGF1cmFudOABAA!16s%2Fg%2F11c5_v7g7c?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J70" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Rumah+Makan+Sea+Food+Lestari/@-8.1086611,110.179505,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7baf76d3ad0315:0x59d729ede64edfb7!8m2!3d-8.1086611!4d110.4678961!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBEnNlYWZvb2RfcmVzdGF1cmFudOABAA!16s%2Fg%2F11c5_v7g7c?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -3304,25 +3230,24 @@
           <t>0813-2550-0771</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr"/>
+      <c r="E71" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F71" t="n">
-        <v>4.7</v>
+        <v>-7.955046</v>
       </c>
       <c r="G71" t="n">
-        <v>-7.955046</v>
-      </c>
-      <c r="H71" t="n">
         <v>110.621332</v>
       </c>
-      <c r="I71" t="b">
-        <v>0</v>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Rumah+Makan+Padang+dan+Seafood+DUTA+RASA/@-7.9550456,110.3329405,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7bb5c53f8bd4d5:0xfbd4c840a7224034!8m2!3d-7.9550456!4d110.6213316!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBEXBhZGFuZ19yZXN0YXVyYW504AEA!16s%2Fg%2F11kdct_lxx?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J71" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Rumah+Makan+Padang+dan+Seafood+DUTA+RASA/@-7.9550456,110.3329405,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7bb5c53f8bd4d5:0xfbd4c840a7224034!8m2!3d-7.9550456!4d110.6213316!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBEXBhZGFuZ19yZXN0YXVyYW504AEA!16s%2Fg%2F11kdct_lxx?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
         <is>
           <t>7 bulan lalu</t>
         </is>
@@ -3345,21 +3270,20 @@
           <t>0878-3805-701</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr"/>
-      <c r="F72" t="n">
+      <c r="E72" t="n">
         <v>4.7</v>
       </c>
+      <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
-      <c r="I72" t="b">
-        <v>0</v>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Rumah+Makan+Padang+Dua+Satu/@-7.9550456,110.3329405,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7bb3684e6e7f2f:0x409e57408c5e759!8m2!3d-7.9712378!4d110.602423!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBEXBhZGFuZ19yZXN0YXVyYW504AEA!16s%2Fg%2F11g6_273y1?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J72" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Rumah+Makan+Padang+Dua+Satu/@-7.9550456,110.3329405,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7bb3684e6e7f2f:0x409e57408c5e759!8m2!3d-7.9712378!4d110.602423!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBEXBhZGFuZ19yZXN0YXVyYW504AEA!16s%2Fg%2F11g6_273y1?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
